--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView windowWidth="28245" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="河源" sheetId="1" r:id="rId1"/>
+    <sheet name="北京" sheetId="3" r:id="rId2"/>
+    <sheet name="深圳" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>年份</t>
   </si>
@@ -53,13 +53,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,8 +70,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -411,10 +426,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -429,6 +468,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -540,7 +616,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,16 +625,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,135 +634,162 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,17 +853,29 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="0">
+    <open main="51" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="0" sheetStid="1">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="3">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="4">
+        <open threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -783,31 +889,31 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -879,40 +985,66 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -926,38 +1058,20 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -1018,400 +1132,396 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6.18181818181818" customWidth="1"/>
-    <col min="2" max="2" width="11.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="10.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="11.7272727272727" customWidth="1"/>
-    <col min="5" max="6" width="14.4545454545455" customWidth="1"/>
+    <col min="1" max="6" width="14.5666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>2006</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>151</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>2233.2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>21.9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <v>1765.2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>2007</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>150</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>1798.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>21.7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>1839.3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="9">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>2008</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>169</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="10">
         <v>2099.7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>21</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>1787.3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>2009</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>113</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>1186</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>21.8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>1879.6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="10">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>2010</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>163.67</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>2010.4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>21.2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>1636.1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>2011</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>122.73</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>1397.1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>1919.8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>2012</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>153.93</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>1692.3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>20.8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="10">
         <v>1490.3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="10">
         <v>76.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>2013</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>182.43</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="10">
         <v>2060.2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="10">
         <v>20.8</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="10">
         <v>1627.4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="10">
         <v>76.2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>2014</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>127.83</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>1420.2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="10">
         <v>21.2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="10">
         <v>1828.3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>76.2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>2015</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <v>155.4</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="10">
         <v>1811.2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="10">
         <v>21.6</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="10">
         <v>1613.3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>79.9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>2016</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="10">
         <v>226.45</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="10">
         <v>2532.7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="10">
         <v>21.3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="10">
         <v>1491.3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>80.5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>2017</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>124.83</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="10">
         <v>1582</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="10">
         <v>22.4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="10">
         <v>1866</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>76.9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>2018</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="10">
         <v>125.61</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="10">
         <v>1508</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="10">
         <v>22.4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="10">
         <v>1841.9</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>2019</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="10">
         <v>185.35</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="10">
         <v>2045.9</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="10">
         <v>21.6</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="10">
         <v>1682.5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>2020</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="9">
         <v>122.06</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="9">
         <v>1357.1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>21.5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>1739.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="9">
         <v>77.3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>2021</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>57.31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
         <v>1031</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="9">
         <v>22.1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <v>2188.1</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="9">
         <v>72.1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>2022</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="10">
         <v>160.4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="10">
         <v>1962.2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="10">
         <v>21</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="10">
         <v>1712.5</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="10">
         <v>75.9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>2023</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="10">
         <v>134.31</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="10">
         <v>1646.2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="10">
         <v>21.3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="10">
         <v>1792.3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="10">
         <v>77.9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1419,16 +1529,440 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="9.625"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>338.9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2611.7</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>370.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2588.4</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>444.9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2260.2</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>483.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2515.4</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>410.7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2576.1</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="3">
+        <v>22.1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>318</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2192.7</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>483.9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2351.1</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>626.3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2391.4</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>480.6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2511.8</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>522.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2382.9</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>720.6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2485.7</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>733.2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2450.2</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>578.9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2371.1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>461.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2344.1</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>458.6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2420.2</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>669.1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2502.1</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>576.2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2600.1</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>546.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2483.7</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>406.3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2542.3</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>527.1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2527.4</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>698.4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2292.2</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>585.4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2579.1</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1436,16 +1970,546 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2747.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1811.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15.68</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1608.1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1975</v>
+      </c>
+      <c r="F3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16.29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1833.4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1655.3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>13.84</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1299.4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1921.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="2">
+        <v>19.93</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2143.6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1574.3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20.34</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1936.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1624.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="2">
+        <v>17.57</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1581.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1937.1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>27.09</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2710</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1907.6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="2">
+        <v>18.86</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1611</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1987.3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1634</v>
+      </c>
+      <c r="D11" s="2">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1775.6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14.48</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1269.7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2054.4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19.56</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1554.8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1781.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2203.6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1906.6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21.51</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1725.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2034.6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="2">
+        <v>18.49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1500.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1964.3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2490.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1759.3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="2">
+        <v>19.58</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1967.1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1919.1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22.64</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1957.2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1905.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20.62</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1880.1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1868.7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="2">
+        <v>17.17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1581.8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1954</v>
+      </c>
+      <c r="F21" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="2">
+        <v>12.94</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1822.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2100.7</v>
+      </c>
+      <c r="F22" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22.04</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1935</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1826.6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1901.3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1753.9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="436285150285" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12435" activeTab="1"/>
+    <workbookView windowWidth="28245" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="河源" sheetId="1" r:id="rId1"/>
     <sheet name="北京" sheetId="3" r:id="rId2"/>
     <sheet name="深圳" sheetId="4" r:id="rId3"/>
+    <sheet name="杭州" sheetId="6" r:id="rId4"/>
+    <sheet name="上海" sheetId="8" r:id="rId5"/>
+    <sheet name="银川" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>年份</t>
   </si>
@@ -48,19 +51,35 @@
   <si>
     <t>年平均相对湿度</t>
   </si>
+  <si>
+    <t>城市面积</t>
+  </si>
+  <si>
+    <t>大型河流年径流量</t>
+  </si>
+  <si>
+    <t>大型水库蓄水量</t>
+  </si>
+  <si>
+    <t>总用水量</t>
+  </si>
+  <si>
+    <t>1 420.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="###\ ##0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +92,25 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF003300"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -447,15 +485,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -628,168 +657,186 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -855,8 +902,8 @@
 
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookInfo cellCmpFml="0">
-    <open main="51" threadCnt="1"/>
+  <bookInfo cellCmpFml="0" dbFileVersion="0">
+    <open main="63" threadCnt="1"/>
     <sheetInfos>
       <sheetInfo cellCmpFml="0" sheetStid="1">
         <open threadCnt="1"/>
@@ -865,6 +912,15 @@
         <open threadCnt="1"/>
       </sheetInfo>
       <sheetInfo cellCmpFml="0" sheetStid="4">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="6">
+        <open main="1" threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="8">
+        <open threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="9">
         <open threadCnt="1"/>
       </sheetInfo>
     </sheetInfos>
@@ -1130,393 +1186,573 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="14.5666666666667" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="8">
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14">
         <v>2006</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="15">
         <v>151</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="15">
         <v>2233.2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="15">
         <v>21.9</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="15">
         <v>1765.2</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8">
+      <c r="F2" s="15"/>
+      <c r="G2" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="J2" s="1">
+        <v>172400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="14">
         <v>2007</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="15">
         <v>150</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="15">
         <v>1798.5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="15">
         <v>21.7</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="15">
         <v>1839.3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="15">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8">
+      <c r="G3" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I3" s="1">
+        <v>74.31</v>
+      </c>
+      <c r="J3" s="1">
+        <v>167200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14">
         <v>2008</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="16">
         <v>169</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="16">
         <v>2099.7</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="16">
         <v>21</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="16">
         <v>1787.3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="15">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8">
+      <c r="G4" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I4" s="1">
+        <v>80.05</v>
+      </c>
+      <c r="J4" s="1">
+        <v>180400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14">
         <v>2009</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="16">
         <v>113</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="16">
         <v>1186</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="16">
         <v>21.8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="16">
         <v>1879.6</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="16">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="G5" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I5" s="1">
+        <v>63.51</v>
+      </c>
+      <c r="J5" s="1">
+        <v>186500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14">
         <v>2010</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="16">
         <v>163.67</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="16">
         <v>2010.4</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="16">
         <v>21.2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="16">
         <v>1636.1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="16">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="G6" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I6" s="1">
+        <v>92.84</v>
+      </c>
+      <c r="J6" s="1">
+        <v>186800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14">
         <v>2011</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="16">
         <v>122.73</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="16">
         <v>1397.1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="16">
         <v>21</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="16">
         <v>1919.8</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="16">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="G7" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I7" s="1">
+        <v>83.73</v>
+      </c>
+      <c r="J7" s="1">
+        <v>199600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="14">
         <v>2012</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="16">
         <v>153.93</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16">
         <v>1692.3</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="16">
         <v>20.8</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="16">
         <v>1490.3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="16">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="G8" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I8" s="1">
+        <v>96.41</v>
+      </c>
+      <c r="J8" s="1">
+        <v>197900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="14">
         <v>2013</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="16">
         <v>182.43</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="16">
         <v>2060.2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="16">
         <v>20.8</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="16">
         <v>1627.4</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="16">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8">
+      <c r="G9" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I9" s="1">
+        <v>125.03</v>
+      </c>
+      <c r="J9" s="1">
+        <v>191500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14">
         <v>2014</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="15">
         <v>127.83</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="15">
         <v>1420.2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="16">
         <v>21.2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="16">
         <v>1828.3</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="16">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8">
+      <c r="G10" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I10" s="1">
+        <v>92.83</v>
+      </c>
+      <c r="J10" s="1">
+        <v>188800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14">
         <v>2015</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="16">
         <v>155.4</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="16">
         <v>1811.2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="16">
         <v>21.6</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="16">
         <v>1613.3</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="16">
         <v>79.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8">
+      <c r="G11" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I11" s="1">
+        <v>98.23</v>
+      </c>
+      <c r="J11" s="1">
+        <v>193400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="14">
         <v>2016</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="16">
         <v>226.45</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="16">
         <v>2532.7</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="16">
         <v>21.3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="16">
         <v>1491.3</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="16">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8">
+      <c r="G12" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I12" s="1">
+        <v>113.51</v>
+      </c>
+      <c r="J12" s="1">
+        <v>190100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="14">
         <v>2017</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="16">
         <v>124.83</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="16">
         <v>1582</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="16">
         <v>22.4</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="16">
         <v>1866</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="16">
         <v>76.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8">
+      <c r="G13" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I13" s="1">
+        <v>106.27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>179400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14">
         <v>2018</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="16">
         <v>125.61</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="16">
         <v>1508</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="16">
         <v>22.4</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="16">
         <v>1841.9</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="16">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8">
+      <c r="G14" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I14" s="1">
+        <v>70.32</v>
+      </c>
+      <c r="J14" s="1">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14">
         <v>2019</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="16">
         <v>185.35</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="16">
         <v>2045.9</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="16">
         <v>21.6</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="16">
         <v>1682.5</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="16">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8">
+      <c r="G15" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I15" s="1">
+        <v>94.53</v>
+      </c>
+      <c r="J15" s="1">
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14">
         <v>2020</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="15">
         <v>122.06</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="15">
         <v>1357.1</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="15">
         <v>21.5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="15">
         <v>1739.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="15">
         <v>77.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8">
+      <c r="G16" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I16" s="1">
+        <v>69.67</v>
+      </c>
+      <c r="J16" s="1">
+        <v>159000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="14">
         <v>2021</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="15">
         <v>57.31</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="15">
         <v>1031</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="15">
         <v>22.1</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="15">
         <v>2188.1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="15">
         <v>72.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8">
+      <c r="G17" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I17" s="1">
+        <v>48.51</v>
+      </c>
+      <c r="J17" s="1">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14">
         <v>2022</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="16">
         <v>160.4</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="16">
         <v>1962.2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="16">
         <v>21</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="16">
         <v>1712.5</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="16">
         <v>75.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8">
+      <c r="G18" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I18" s="1">
+        <v>96.11</v>
+      </c>
+      <c r="J18" s="1">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14">
         <v>2023</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="16">
         <v>134.31</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="16">
         <v>1646.2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="16">
         <v>21.3</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="16">
         <v>1792.3</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="16">
         <v>77.9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I19" s="1">
+        <v>101.14</v>
+      </c>
+      <c r="J19" s="1">
+        <v>151000</v>
       </c>
     </row>
   </sheetData>
@@ -1529,436 +1765,511 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="9.625"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
         <v>2001</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>19.2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>338.9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>12.9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2611.7</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="F2" s="4"/>
+      <c r="G2">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
         <v>2002</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>16.1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>370.4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>13.2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>2588.4</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="F3" s="4"/>
+      <c r="G3">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
         <v>2003</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>18.4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>444.9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>12.9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>2260.2</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="F4" s="4"/>
+      <c r="G4">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
         <v>2004</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>21.4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>483.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>13.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>2515.4</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="F5" s="4"/>
+      <c r="G5">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
         <v>2005</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>23.2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>410.7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>13.2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>2576.1</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="F6" s="4"/>
+      <c r="G6">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
         <v>2006</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>22.1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>318</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>13.4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>2192.7</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="F7" s="13"/>
+      <c r="G7">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
         <v>2007</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>23.8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>483.9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>14</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>2351.1</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
+      <c r="F8" s="13"/>
+      <c r="G8">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
         <v>2008</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>24.2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>626.3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>13.4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>2391.4</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="F9" s="13"/>
+      <c r="G9">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
         <v>2009</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>24.2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>480.6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>13.3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>2511.8</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
+      <c r="F10" s="13"/>
+      <c r="G10">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
         <v>2010</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>24.8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>522.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>12.6</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>2382.9</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
+      <c r="F11" s="13"/>
+      <c r="G11">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
         <v>2011</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>25.3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>720.6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>13.4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>2485.7</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>2012</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>24.8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>733.2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>12.9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>2450.2</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>2013</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>25.3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>578.9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>12.8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>2371.1</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3">
+      <c r="F14" s="4"/>
+      <c r="G14">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
         <v>2014</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>24.8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>461.5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>14.1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>2344.1</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
+      <c r="F15" s="4"/>
+      <c r="G15">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
         <v>2015</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>25.3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>458.6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>13.7</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>2420.2</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
+      <c r="F16" s="4"/>
+      <c r="G16">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
         <v>2016</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>24.8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>669.1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>13.8</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>2502.1</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
+      <c r="F17" s="4"/>
+      <c r="G17">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
         <v>2017</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>25.3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>576.2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>14.2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>2600.1</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
+      <c r="F18" s="4"/>
+      <c r="G18">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
         <v>2018</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>24.8</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>546.5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>13.6</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>2483.7</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
+      <c r="F19" s="4"/>
+      <c r="G19">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
         <v>2019</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>25.3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>406.3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>13.8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>2542.3</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
+      <c r="F20" s="4"/>
+      <c r="G20">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
         <v>2020</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>24.8</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>527.1</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>13.8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>2527.4</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
+      <c r="F21" s="4"/>
+      <c r="G21">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
         <v>2021</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>25.3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>698.4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>13.6</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>2292.2</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
+      <c r="F22" s="4"/>
+      <c r="G22">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
         <v>2022</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>24.8</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>585.4</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>13.4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>2579.1</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23">
+        <v>1.64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1970,495 +2281,1366 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2747.3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1811.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="4">
+        <v>15.68</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1608.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1975</v>
+      </c>
+      <c r="F3" s="4">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16.29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1833.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1655.3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="4">
+        <v>13.84</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1299.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1921.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="4">
+        <v>19.93</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2143.6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1574.3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20.34</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1936.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1624.3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="4">
+        <v>17.57</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1581.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1937.1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1">
+        <v>18.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="4">
+        <v>27.09</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2710</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1907.6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="4">
+        <v>18.86</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1611</v>
+      </c>
+      <c r="D10" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1987.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1634</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1775.6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="4">
+        <v>14.48</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1269.7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2054.4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="4">
+        <v>19.56</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1554.8</v>
+      </c>
+      <c r="D13" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1781.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1">
+        <v>19.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2203.6</v>
+      </c>
+      <c r="D14" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1906.6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1">
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="4">
+        <v>21.51</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1725.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2034.6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1">
+        <v>19.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="4">
+        <v>18.49</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1500.8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1964.3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2490.6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1759.3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="4">
+        <v>19.58</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1967.1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1919.1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="4">
+        <v>22.64</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1957.2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1905.5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20.62</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1880.1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1868.7</v>
+      </c>
+      <c r="F20" s="4">
+        <v>78</v>
+      </c>
+      <c r="G20" s="1">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="4">
+        <v>17.17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1581.8</v>
+      </c>
+      <c r="D21" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1954</v>
+      </c>
+      <c r="F21" s="4">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="4">
+        <v>12.94</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1822.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>24</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2100.7</v>
+      </c>
+      <c r="F22" s="4">
+        <v>74</v>
+      </c>
+      <c r="G22" s="1">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="4">
+        <v>22.04</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1935</v>
+      </c>
+      <c r="D23" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1826.6</v>
+      </c>
+      <c r="F23" s="4">
+        <v>76</v>
+      </c>
+      <c r="G23" s="1">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1901.3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1753.9</v>
+      </c>
+      <c r="F24" s="4">
+        <v>76</v>
+      </c>
+      <c r="G24" s="1">
+        <v>22.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="I14" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1164.3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1422.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>487300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="1">
+        <v>104.13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1378.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1472.9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>495600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="1">
+        <v>154.38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1273.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1641.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>567000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="1">
+        <v>141.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1615.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1709.9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>542800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1">
+        <v>190.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1728.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1689.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>549500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="1">
+        <v>136.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1359.9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1496.1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>577100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="1">
+        <v>221.26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1728.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1520.6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>564500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="1">
+        <v>141.15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1520.9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1665.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>577700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="1">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1359.9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1407.2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>371400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="1">
+        <v>239.06</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2131.9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1315.8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>347900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="1">
+        <v>213.1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1797.3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1522.4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>342400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="1">
+        <v>146.87</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1442</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1818.4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>334700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="1">
+        <v>146.24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1744.9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18.1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1744.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>324700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="1">
+        <v>188.12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1823.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18.1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1657.9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>309600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="1">
+        <v>218.89</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1664.2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1619.3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>297600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="1">
+        <v>191.42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1952.1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1846.8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="1">
+        <v>128.08</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1501.9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18.4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1943.1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>292700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="1">
+        <v>115.26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1417.4</v>
+      </c>
+      <c r="D19" s="8">
+        <v>18.4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1943.1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1">
+        <v>291000</v>
+      </c>
+      <c r="H19" s="8">
+        <v>146.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B2" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2747.3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>23.6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1811.3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>74</v>
+      <c r="A2" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B2" s="5">
+        <v>41.6</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1457.9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1506.5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>125.2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15.68</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1608.1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>23.7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1975</v>
-      </c>
-      <c r="F3" s="2">
-        <v>72</v>
+      <c r="A3" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="5">
+        <v>36.8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1317.3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>17.4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1366.8</v>
+      </c>
+      <c r="F3" s="9">
+        <v>126.3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16.29</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1833.4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>23.9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1655.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>74</v>
+      <c r="A4" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>902.9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1392</v>
+      </c>
+      <c r="F4" s="9">
+        <v>124.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="2">
-        <v>13.84</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1299.4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1921.5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>71</v>
+      <c r="A5" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="5">
+        <v>33.9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1275.2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17.1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="2">
-        <v>19.93</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2143.6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1574.3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>70</v>
+      <c r="A6" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="5">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1173.4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17.6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1885.9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>123.2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="2">
-        <v>20.34</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1936.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23.4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1624.3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>73</v>
+      <c r="A7" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="5">
+        <v>47.1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1295.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1612.6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>105.9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="2">
-        <v>17.57</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1581.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>23.5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1937.1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>70</v>
+      <c r="A8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="5">
+        <v>64.1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1649.1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17.1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1493.8</v>
+      </c>
+      <c r="F8" s="9">
+        <v>103.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="2">
-        <v>27.09</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2710</v>
-      </c>
-      <c r="D9" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1907.6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>69</v>
+      <c r="A9" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="5">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1597.1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1668.6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>104.8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="2">
-        <v>18.86</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1611</v>
-      </c>
-      <c r="D10" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1987.3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>70</v>
+      <c r="A10" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="5">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1388.8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>17.7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1809.2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>104.8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="2">
-        <v>18.7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1634</v>
-      </c>
-      <c r="D11" s="2">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1775.6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>73</v>
+      <c r="A11" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="5">
+        <v>38.7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1407.9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1904</v>
+      </c>
+      <c r="F11" s="9">
+        <v>103.4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="2">
-        <v>14.48</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1269.7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>22.6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2054.4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>71</v>
+      <c r="A12" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="5">
+        <v>48.3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1409.1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1653</v>
+      </c>
+      <c r="F12" s="9">
+        <v>100.9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="2">
-        <v>19.56</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1554.8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1781.5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>79</v>
+      <c r="A13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="5">
+        <v>58.6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1554.6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1085</v>
+      </c>
+      <c r="F13" s="9">
+        <v>97.5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="2">
-        <v>25.2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2203.6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>23.1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1906.6</v>
-      </c>
-      <c r="F14" s="2">
-        <v>75</v>
+      <c r="A14" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="5">
+        <v>53.9</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1474.5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>18.1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2056.3</v>
+      </c>
+      <c r="F14" s="9">
+        <v>105.8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="2">
-        <v>21.51</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1725.5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2034.6</v>
-      </c>
-      <c r="F15" s="2">
-        <v>73</v>
+      <c r="A15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="5">
+        <v>33.1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1072.8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2134.7</v>
+      </c>
+      <c r="F15" s="9">
+        <v>105.7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="2">
-        <v>18.49</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1500.8</v>
-      </c>
-      <c r="D16" s="2">
-        <v>23.9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1964.3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="2">
-        <v>30.4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2490.6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1759.3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="2">
-        <v>19.58</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1967.1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>23.6</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1919.1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="2">
-        <v>22.64</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1957.2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>23.4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1905.5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20.62</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1880.1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1868.7</v>
-      </c>
-      <c r="F20" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B21" s="2">
-        <v>17.17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1581.8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>23.8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1954</v>
-      </c>
-      <c r="F21" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="2">
-        <v>12.94</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1822.5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>24</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2100.7</v>
-      </c>
-      <c r="F22" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="2">
-        <v>22.04</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1935</v>
-      </c>
-      <c r="D23" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1826.6</v>
-      </c>
-      <c r="F23" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
+      <c r="A16" s="4">
         <v>2023</v>
       </c>
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1901.3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>23.9</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1753.9</v>
-      </c>
-      <c r="F24" s="2">
-        <v>76</v>
+      <c r="B16" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1280.6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1489.7</v>
+      </c>
+      <c r="F16" s="9">
+        <v>104.8</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2480,9 +3662,21 @@
       <cellprotection/>
       <appEtDbRelations/>
     </woSheetProps>
+    <woSheetProps sheetStid="6" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="8" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+    <woSheetProps sheetStid="9" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
   </woSheetsProps>
   <woBookProps>
-    <bookSettings fileId="436285150285" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+    <bookSettings fileId="436285150285" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0" supportDbFmlaDisp="0"/>
   </woBookProps>
 </woProps>
 </file>
@@ -2492,7 +3686,10 @@
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="3"/>
   <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="10"/>
 </pixelators>
 </file>
 
